--- a/trunk/Documentazione Generale/Tiscali - BSS - SIT - Environments.xlsx
+++ b/trunk/Documentazione Generale/Tiscali - BSS - SIT - Environments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\Documentazione\Tiscali\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\TortoiseSVN\SIT\trunk\Documentazione Generale\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="213">
   <si>
     <t>http://sbl-app-devnode01.dev.tiscali.sys/callcenter_ita/start.swe</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>213.205.34.199</t>
-  </si>
-  <si>
-    <t>Web Service Siebel</t>
   </si>
   <si>
     <t>http://sbl-app-devnode01.dev.tiscali.sys/eai_ita/start.swe</t>
@@ -183,9 +180,6 @@
   </si>
   <si>
     <t>http://u2ie-tibco.r10.tiscali.com:52011</t>
-  </si>
-  <si>
-    <t>ECARE</t>
   </si>
   <si>
     <t>SELFCARE</t>
@@ -455,9 +449,6 @@
     <t>Tomcat</t>
   </si>
   <si>
-    <t>SELFCARE - Pagina di configurazione APP Android</t>
-  </si>
-  <si>
     <t>SELFCARE - Pagina di sottoscrizione Selfcare generica</t>
   </si>
   <si>
@@ -624,13 +615,82 @@
 add, lst, del, getfile
 Servizi esposti verso Selfcare acquisition:
 acquisitionRecharge, acquisitionConfirm, acquisitionRollback, changeSIMVerify, validation</t>
+  </si>
+  <si>
+    <t>ECARE (ECMobileProfile.serviceagent, etc.)</t>
+  </si>
+  <si>
+    <t>CRM SIEBEL - Web Service Siebel</t>
+  </si>
+  <si>
+    <t>APP MYTISCALI - Web Services APP</t>
+  </si>
+  <si>
+    <t>e-Invoicing Gateway</t>
+  </si>
+  <si>
+    <t>KOFAX</t>
+  </si>
+  <si>
+    <t>Numera</t>
+  </si>
+  <si>
+    <t>Paypal</t>
+  </si>
+  <si>
+    <t>SOFORT</t>
+  </si>
+  <si>
+    <t>GeoLab</t>
+  </si>
+  <si>
+    <t>Service Customer Credit Check (LINCE)</t>
+  </si>
+  <si>
+    <t>MGM (freelosophy)</t>
+  </si>
+  <si>
+    <t>DCP (Radius Server)</t>
+  </si>
+  <si>
+    <t>OFA</t>
+  </si>
+  <si>
+    <t>LPS</t>
+  </si>
+  <si>
+    <t>Mail Server</t>
+  </si>
+  <si>
+    <t>FAX</t>
+  </si>
+  <si>
+    <t>BACKUP</t>
+  </si>
+  <si>
+    <t>DBU</t>
+  </si>
+  <si>
+    <t>Antivirus</t>
+  </si>
+  <si>
+    <t>Mass mailing platform</t>
+  </si>
+  <si>
+    <t>SIGMA</t>
+  </si>
+  <si>
+    <t>Ambiente di sviluppo ed integrato</t>
+  </si>
+  <si>
+    <t>OPEN-NET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +736,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -753,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -813,6 +885,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1151,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1168,7 +1246,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1178,11 +1256,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A59:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1282,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>1</v>
@@ -1213,46 +1291,46 @@
         <v>13</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="R1" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,7 +1347,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>5</v>
@@ -1303,22 +1381,22 @@
         <v>1521</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
@@ -1327,82 +1405,86 @@
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3">
         <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="D5" s="3">
         <v>80</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="6" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>28</v>
@@ -1411,7 +1493,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>30</v>
@@ -1431,10 +1513,10 @@
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
@@ -1443,7 +1525,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>30</v>
@@ -1463,10 +1545,10 @@
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>32</v>
+        <v>137</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
@@ -1475,7 +1557,7 @@
         <v>80</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>30</v>
@@ -1494,12 +1576,24 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3">
+        <v>80</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -1514,18 +1608,30 @@
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -1535,29 +1641,33 @@
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3">
         <v>80</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
-      <c r="L11" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -1567,62 +1677,56 @@
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>87</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3">
         <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3306</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="3">
-        <v>80</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -1637,22 +1741,26 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3">
-        <v>3306</v>
+        <v>80</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -1667,90 +1775,86 @@
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="D15" s="8">
+        <v>18000</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3">
-        <v>80</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="D16" s="8">
+        <v>20000</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="8">
+        <v>20100</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" s="8">
-        <v>18000</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="13"/>
@@ -1767,22 +1871,22 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8">
+        <v>20200</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" s="8">
-        <v>20000</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="13"/>
@@ -1794,27 +1898,29 @@
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="Q18" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="8">
+        <v>20300</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" s="8">
-        <v>20100</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="13"/>
@@ -1831,25 +1937,27 @@
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3">
+        <v>51001</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="8">
-        <v>20200</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -1859,308 +1967,306 @@
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3">
+        <v>51002</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="8">
-        <v>20300</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="K21" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
+      <c r="O21" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="Q21" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3">
+        <v>52010</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="3">
-        <v>51001</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="K22" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
-      <c r="Q22" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="Q22" s="13"/>
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3">
+        <v>52011</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D23" s="3">
-        <v>51002</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="O23" s="13"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3">
+        <v>52015</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D24" s="3">
-        <v>52010</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="Q24" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3">
+        <v>52110</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="3">
-        <v>52011</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
-      <c r="Q25" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="Q25" s="13"/>
       <c r="R25" s="6"/>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="3">
+        <v>52150</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D26" s="3">
-        <v>52015</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
-      <c r="Q26" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="Q26" s="13"/>
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="8">
+        <v>52160</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="3">
-        <v>52110</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="6"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="8">
+        <v>52163</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="3">
-        <v>52150</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="6"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="R28" s="9"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="8">
-        <v>52160</v>
+        <v>52164</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>75</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="19"/>
@@ -2177,22 +2283,22 @@
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="8">
-        <v>52163</v>
+        <v>52165</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>76</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="19"/>
@@ -2204,127 +2310,129 @@
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
-      <c r="Q30" s="19" t="s">
-        <v>99</v>
-      </c>
+      <c r="Q30" s="19"/>
       <c r="R30" s="9"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="8">
-        <v>52164</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>77</v>
+        <v>111</v>
+      </c>
+      <c r="D31" s="3">
+        <v>80</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="1:18" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="8">
-        <v>52165</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>78</v>
+        <v>111</v>
+      </c>
+      <c r="D32" s="3">
+        <v>80</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="9"/>
-    </row>
-    <row r="33" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D33" s="3">
         <v>80</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G33" s="6"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M33" s="13"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M33" s="11"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="Q33" s="11"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" spans="1:18" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D34" s="3">
         <v>80</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="11"/>
@@ -2334,65 +2442,61 @@
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" s="3">
-        <v>80</v>
+        <v>3306</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
-      <c r="L35" s="11" t="s">
-        <v>99</v>
-      </c>
+      <c r="L35" s="11"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="6"/>
     </row>
-    <row r="36" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>122</v>
+        <v>141</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="D36" s="3">
         <v>80</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="11"/>
@@ -2401,32 +2505,30 @@
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="O36" s="13"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="P36" s="13"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="6"/>
     </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5432</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="3">
-        <v>3306</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="11"/>
@@ -2443,22 +2545,26 @@
     </row>
     <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="D38" s="3">
         <v>80</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="F38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
@@ -2466,29 +2572,29 @@
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="P38" s="13"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="3">
+        <v>80</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="3">
-        <v>5432</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="11"/>
@@ -2508,23 +2614,21 @@
         <v>146</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" s="3">
         <v>80</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G40" s="6"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
@@ -2539,22 +2643,22 @@
     </row>
     <row r="41" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="3">
         <v>80</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="11"/>
@@ -2571,22 +2675,22 @@
     </row>
     <row r="42" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="3">
         <v>80</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="11"/>
@@ -2603,22 +2707,22 @@
     </row>
     <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="3">
         <v>80</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="11"/>
@@ -2633,24 +2737,24 @@
       <c r="Q43" s="11"/>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="3">
         <v>80</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="11"/>
@@ -2665,24 +2769,24 @@
       <c r="Q44" s="11"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="3">
         <v>80</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="11"/>
@@ -2697,15 +2801,15 @@
       <c r="Q45" s="11"/>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="3">
         <v>80</v>
@@ -2714,7 +2818,7 @@
         <v>171</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="11"/>
@@ -2731,22 +2835,22 @@
     </row>
     <row r="47" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D47" s="3">
         <v>80</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="11"/>
@@ -2761,24 +2865,22 @@
       <c r="Q47" s="11"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D48" s="3">
         <v>80</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="11"/>
@@ -2793,26 +2895,26 @@
       <c r="Q48" s="11"/>
       <c r="R48" s="6"/>
     </row>
-    <row r="49" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="D49" s="3">
-        <v>80</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>173</v>
-      </c>
+        <v>8081</v>
+      </c>
+      <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G49" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
@@ -2820,27 +2922,31 @@
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
+      <c r="O49" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
-      <c r="R49" s="6"/>
+      <c r="R49" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="50" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="D50" s="3">
-        <v>80</v>
+        <v>8081</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="11"/>
@@ -2850,31 +2956,31 @@
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
+      <c r="O50" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="6"/>
     </row>
     <row r="51" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D51" s="3">
         <v>8081</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>179</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -2883,30 +2989,28 @@
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
-      <c r="R51" s="6" t="s">
-        <v>184</v>
-      </c>
+      <c r="R51" s="6"/>
     </row>
     <row r="52" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="D52" s="3">
         <v>8081</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="11"/>
@@ -2917,7 +3021,7 @@
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
@@ -2925,20 +3029,20 @@
     </row>
     <row r="53" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D53" s="3">
         <v>8081</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="11"/>
@@ -2949,7 +3053,7 @@
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
@@ -2957,20 +3061,20 @@
     </row>
     <row r="54" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D54" s="3">
         <v>8081</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="11"/>
@@ -2981,7 +3085,7 @@
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
@@ -2989,20 +3093,22 @@
     </row>
     <row r="55" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D55" s="3">
         <v>8081</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="F55" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="11"/>
@@ -3013,29 +3119,21 @@
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="6"/>
     </row>
-    <row r="56" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="3">
-        <v>8081</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="F56" s="3"/>
       <c r="G56" s="6"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -3044,32 +3142,20 @@
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
-      <c r="O56" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="6"/>
     </row>
-    <row r="57" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D57" s="3">
-        <v>8081</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>136</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
       <c r="G57" s="6"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -3078,58 +3164,434 @@
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
-      <c r="O57" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="O57" s="11"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="6"/>
     </row>
+    <row r="58" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="6"/>
+    </row>
+    <row r="59" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="6"/>
+    </row>
+    <row r="60" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="6"/>
+    </row>
+    <row r="61" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="6"/>
+    </row>
+    <row r="62" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="6"/>
+    </row>
+    <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="6"/>
+    </row>
+    <row r="64" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="6"/>
+    </row>
+    <row r="65" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="6"/>
+    </row>
+    <row r="66" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="6"/>
+    </row>
+    <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="6"/>
+    </row>
+    <row r="68" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="6"/>
+    </row>
+    <row r="69" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="6"/>
+    </row>
+    <row r="70" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="6"/>
+    </row>
+    <row r="71" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="6"/>
+    </row>
+    <row r="72" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="6"/>
+    </row>
+    <row r="73" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="6"/>
+    </row>
+    <row r="74" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="6"/>
+    </row>
+    <row r="75" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B16" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B15" r:id="rId10"/>
-    <hyperlink ref="B23" r:id="rId11"/>
-    <hyperlink ref="B11" r:id="rId12"/>
-    <hyperlink ref="B22" r:id="rId13"/>
-    <hyperlink ref="B25" r:id="rId14"/>
-    <hyperlink ref="B26" r:id="rId15"/>
-    <hyperlink ref="B24" r:id="rId16"/>
-    <hyperlink ref="B27" r:id="rId17"/>
-    <hyperlink ref="B28" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B18" r:id="rId20"/>
-    <hyperlink ref="B21" r:id="rId21"/>
-    <hyperlink ref="B19" r:id="rId22"/>
-    <hyperlink ref="B17" r:id="rId23"/>
-    <hyperlink ref="B29" r:id="rId24"/>
-    <hyperlink ref="B30" r:id="rId25"/>
-    <hyperlink ref="B31" r:id="rId26"/>
-    <hyperlink ref="B32" r:id="rId27"/>
-    <hyperlink ref="B33" r:id="rId28" tooltip="http://dealer-1.int.vas.tiscali.sys/index.php_x000a_Ctrl + clic per seguire il collegamento"/>
-    <hyperlink ref="B34" r:id="rId29" tooltip="http://dealer-1.int.vas.tiscali.sys/interface.php_x000a_Ctrl + clic per seguire il collegamento"/>
-    <hyperlink ref="B35" r:id="rId30" tooltip="http://dealer-1.int.vas.tiscali.sys/interface.php_x000a_Ctrl + clic per seguire il collegamento"/>
-    <hyperlink ref="B36" r:id="rId31"/>
-    <hyperlink ref="B4" r:id="rId32"/>
-    <hyperlink ref="B40" r:id="rId33"/>
-    <hyperlink ref="B41" r:id="rId34"/>
-    <hyperlink ref="B42" r:id="rId35"/>
-    <hyperlink ref="B43" r:id="rId36"/>
-    <hyperlink ref="B44" r:id="rId37"/>
-    <hyperlink ref="B45" r:id="rId38"/>
-    <hyperlink ref="B46" r:id="rId39"/>
-    <hyperlink ref="B47" r:id="rId40"/>
-    <hyperlink ref="B48" r:id="rId41"/>
-    <hyperlink ref="B49" r:id="rId42"/>
-    <hyperlink ref="B51" r:id="rId43"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B14" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B4" r:id="rId10"/>
+    <hyperlink ref="B21" r:id="rId11"/>
+    <hyperlink ref="B10" r:id="rId12"/>
+    <hyperlink ref="B20" r:id="rId13"/>
+    <hyperlink ref="B23" r:id="rId14"/>
+    <hyperlink ref="B24" r:id="rId15"/>
+    <hyperlink ref="B22" r:id="rId16"/>
+    <hyperlink ref="B25" r:id="rId17"/>
+    <hyperlink ref="B26" r:id="rId18"/>
+    <hyperlink ref="B18" r:id="rId19"/>
+    <hyperlink ref="B16" r:id="rId20"/>
+    <hyperlink ref="B19" r:id="rId21"/>
+    <hyperlink ref="B17" r:id="rId22"/>
+    <hyperlink ref="B15" r:id="rId23"/>
+    <hyperlink ref="B27" r:id="rId24"/>
+    <hyperlink ref="B28" r:id="rId25"/>
+    <hyperlink ref="B29" r:id="rId26"/>
+    <hyperlink ref="B30" r:id="rId27"/>
+    <hyperlink ref="B31" r:id="rId28" tooltip="http://dealer-1.int.vas.tiscali.sys/index.php_x000a_Ctrl + clic per seguire il collegamento"/>
+    <hyperlink ref="B32" r:id="rId29" tooltip="http://dealer-1.int.vas.tiscali.sys/interface.php_x000a_Ctrl + clic per seguire il collegamento"/>
+    <hyperlink ref="B33" r:id="rId30" tooltip="http://dealer-1.int.vas.tiscali.sys/interface.php_x000a_Ctrl + clic per seguire il collegamento"/>
+    <hyperlink ref="B34" r:id="rId31"/>
+    <hyperlink ref="B5" r:id="rId32"/>
+    <hyperlink ref="B38" r:id="rId33"/>
+    <hyperlink ref="B39" r:id="rId34"/>
+    <hyperlink ref="B40" r:id="rId35"/>
+    <hyperlink ref="B41" r:id="rId36"/>
+    <hyperlink ref="B42" r:id="rId37"/>
+    <hyperlink ref="B43" r:id="rId38"/>
+    <hyperlink ref="B44" r:id="rId39"/>
+    <hyperlink ref="B45" r:id="rId40"/>
+    <hyperlink ref="B46" r:id="rId41"/>
+    <hyperlink ref="B47" r:id="rId42"/>
+    <hyperlink ref="B49" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId44"/>

--- a/trunk/Documentazione Generale/Tiscali - BSS - SIT - Environments.xlsx
+++ b/trunk/Documentazione Generale/Tiscali - BSS - SIT - Environments.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="281">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -817,6 +817,24 @@
   </si>
   <si>
     <t xml:space="preserve">SIGMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS Gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">webservices-1.vas.pre.tiscali.sys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gateway SMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomcat 6/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS Gateway DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Gateway SMS</t>
   </si>
   <si>
     <t xml:space="preserve">WebService Hosting / FAX / Macchine Virtuali</t>
@@ -1322,12 +1340,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U88"/>
+  <dimension ref="A1:U89"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
+      <selection pane="bottomLeft" activeCell="B82" activeCellId="0" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4097,12 +4115,20 @@
       <c r="U80" s="15"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12"/>
+      <c r="A81" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
+      <c r="C81" s="12" t="s">
+        <v>256</v>
+      </c>
       <c r="D81" s="13"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="E81" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>258</v>
+      </c>
       <c r="G81" s="15"/>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
@@ -4111,7 +4137,9 @@
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
+      <c r="O81" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="P81" s="22"/>
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
@@ -4121,22 +4149,18 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>187</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B82" s="12"/>
       <c r="C82" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D82" s="13" t="n">
-        <v>8081</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D82" s="13"/>
       <c r="E82" s="12" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="22"/>
@@ -4147,37 +4171,33 @@
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
-      <c r="P82" s="22" t="s">
-        <v>41</v>
-      </c>
+      <c r="P82" s="22"/>
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
       <c r="S82" s="22"/>
       <c r="T82" s="22"/>
-      <c r="U82" s="15" t="s">
-        <v>257</v>
-      </c>
+      <c r="U82" s="15"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B83" s="12"/>
+      <c r="B83" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="C83" s="12" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="D83" s="13" t="n">
-        <v>3306</v>
+        <v>8081</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>261</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G83" s="15"/>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
@@ -4185,16 +4205,16 @@
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
-      <c r="O83" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="P83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
       <c r="S83" s="22"/>
       <c r="T83" s="22"/>
       <c r="U83" s="15" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4203,19 +4223,19 @@
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D84" s="13" t="n">
         <v>3306</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
@@ -4233,7 +4253,7 @@
       <c r="S84" s="22"/>
       <c r="T84" s="22"/>
       <c r="U84" s="15" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4242,19 +4262,19 @@
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="12" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D85" s="13" t="n">
         <v>3306</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
@@ -4272,30 +4292,28 @@
       <c r="S85" s="22"/>
       <c r="T85" s="22"/>
       <c r="U85" s="15" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="12"/>
+      <c r="C86" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D86" s="13" t="n">
+        <v>3306</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F86" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="G86" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="D86" s="13" t="n">
-        <v>80</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
@@ -4313,7 +4331,7 @@
       <c r="S86" s="22"/>
       <c r="T86" s="22"/>
       <c r="U86" s="15" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4321,21 +4339,23 @@
         <v>185</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D87" s="13" t="n">
         <v>80</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="G87" s="15"/>
+      <c r="G87" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
@@ -4352,7 +4372,7 @@
       <c r="S87" s="22"/>
       <c r="T87" s="22"/>
       <c r="U87" s="15" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4360,23 +4380,21 @@
         <v>185</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D88" s="13" t="n">
         <v>80</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="G88" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="G88" s="15"/>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
       <c r="J88" s="22"/>
@@ -4393,7 +4411,48 @@
       <c r="S88" s="22"/>
       <c r="T88" s="22"/>
       <c r="U88" s="15" t="s">
-        <v>257</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D89" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="22"/>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
+      <c r="T89" s="22"/>
+      <c r="U89" s="15" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Documentazione Generale/Tiscali - BSS - SIT - Environments.xlsx
+++ b/trunk/Documentazione Generale/Tiscali - BSS - SIT - Environments.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\TortoiseSVN\SIT\trunk\Documentazione Generale\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="992" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="History" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Integrato" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="History" sheetId="1" r:id="rId1"/>
+    <sheet name="Integrato" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,423 +26,423 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="281">
-  <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrizione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/07/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bozza. Versione iniziale.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabrizio Dalmonte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mancano i dati di Geneva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applicativo/Servizio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application/DB Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selfcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eCare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MyTiscali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle Finantial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extranet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dealer Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIBCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSTING - VAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSTING - VAS OSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siebel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">webservice.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRM SIEBEL - Web Application Home Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://sbl-app-devnode01.dev.tiscali.sys/callcenter_ita/start.swe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.39.11.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Application CRM Tiscali custom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siebel eBusiness Applications 7.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIS_ADMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRM SIEBEL - DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://lnx-db-intnode01.dev.tiscali.sys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.39.11.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRM DB Siebel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle Database 10g Enterprise Edition Release 10.2.0.5.0 - 64bit
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="283">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Versione</t>
+  </si>
+  <si>
+    <t>Descrizione</t>
+  </si>
+  <si>
+    <t>Autore</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>23/07/2017</t>
+  </si>
+  <si>
+    <t>Bozza. Versione iniziale.</t>
+  </si>
+  <si>
+    <t>Fabrizio Dalmonte</t>
+  </si>
+  <si>
+    <t>Mancano i dati di Geneva</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Porta</t>
+  </si>
+  <si>
+    <t>Applicativo/Servizio</t>
+  </si>
+  <si>
+    <t>Application/DB Server</t>
+  </si>
+  <si>
+    <t>Test User</t>
+  </si>
+  <si>
+    <t>Selfcare</t>
+  </si>
+  <si>
+    <t>eCare</t>
+  </si>
+  <si>
+    <t>MyTiscali</t>
+  </si>
+  <si>
+    <t>Oracle Finantial</t>
+  </si>
+  <si>
+    <t>Extranet</t>
+  </si>
+  <si>
+    <t>Dealer Station</t>
+  </si>
+  <si>
+    <t>TIBCO</t>
+  </si>
+  <si>
+    <t>HOSTING - VAS</t>
+  </si>
+  <si>
+    <t>HOSTING - VAS OSS</t>
+  </si>
+  <si>
+    <t>Siebel</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>MGM</t>
+  </si>
+  <si>
+    <t>webservice.it</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>CRM SIEBEL - Web Application Home Page</t>
+  </si>
+  <si>
+    <t>http://sbl-app-devnode01.dev.tiscali.sys/callcenter_ita/start.swe</t>
+  </si>
+  <si>
+    <t>10.39.11.23</t>
+  </si>
+  <si>
+    <t>Web Application CRM Tiscali custom</t>
+  </si>
+  <si>
+    <t>Siebel eBusiness Applications 7.8</t>
+  </si>
+  <si>
+    <t>TIS_ADMIN</t>
+  </si>
+  <si>
+    <t>CRM SIEBEL - DB</t>
+  </si>
+  <si>
+    <t>http://lnx-db-intnode01.dev.tiscali.sys</t>
+  </si>
+  <si>
+    <t>10.39.11.18</t>
+  </si>
+  <si>
+    <t>CRM DB Siebel</t>
+  </si>
+  <si>
+    <t>Oracle Database 10g Enterprise Edition Release 10.2.0.5.0 - 64bit
 PL/SQL Release 10.2.0.5.0
 Production - "CORE 10.2.0.5.0 Production"
 TNS for Linux: Version 10.2.0.5.0 - Production
 NLSRTL Version 10.2.0.5.0 - Production</t>
   </si>
   <si>
-    <t xml:space="preserve">SIEBEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRM SIEBEL - Web Service Siebel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://sbl-app-devnode01.dev.tiscali.sys/eai_ita/start.swe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siebel EAI Web Serivices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SADMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APP MYTISCALI - Web Services APP</t>
+    <t>SIEBEL</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>CRM SIEBEL - Web Service Siebel</t>
+  </si>
+  <si>
+    <t>http://sbl-app-devnode01.dev.tiscali.sys/eai_ita/start.swe</t>
+  </si>
+  <si>
+    <t>Siebel EAI Web Serivices</t>
+  </si>
+  <si>
+    <t>SADMIN</t>
+  </si>
+  <si>
+    <t>APP MYTISCALI - Web Services APP</t>
   </si>
   <si>
     <t xml:space="preserve">http://selfcare-int-1.pre.tiscali.sys/unit/getmytiscaliconf </t>
   </si>
   <si>
-    <t xml:space="preserve">10.39.81.143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webservice per App Android</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache 2.4.10
+    <t>10.39.81.143</t>
+  </si>
+  <si>
+    <t>Webservice per App Android</t>
+  </si>
+  <si>
+    <t>Apache 2.4.10
 Tomcat Version 5.5.36</t>
   </si>
   <si>
-    <t xml:space="preserve">Ambiente di sviluppo ed integrato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELFCARE - Pagina di sottoscrizione Selfcare generica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://selfcare-int-2.pre.tiscali.sys/html/selfcare.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.39.81.141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIT 2 - pagina di partenza IT - build 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache 2.4.10
+    <t>Ambiente di sviluppo ed integrato</t>
+  </si>
+  <si>
+    <t>SELFCARE - Pagina di sottoscrizione Selfcare generica</t>
+  </si>
+  <si>
+    <t>http://selfcare-int-2.pre.tiscali.sys/html/selfcare.html</t>
+  </si>
+  <si>
+    <t>10.39.81.141</t>
+  </si>
+  <si>
+    <t>UNIT 2 - pagina di partenza IT - build 1.0</t>
+  </si>
+  <si>
+    <t>Apache 2.4.10
 Tomcat Version 8.0.14</t>
   </si>
   <si>
-    <t xml:space="preserve">SELFCARE - Pagina sottoscrizione Selfcare SIM Prepagata + Bundle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://selfcare-int-2.pre.tiscali.sys/html/olc.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIT 2 - pagina di partenza Tiscali Mobile PREPAGATO - build 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELFCARE - Pagina sottoscrizione Selfcare Upgrade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://selfcare-int-2.pre.tiscali.sys/html/upgrade.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIT 2 - Upgrade - build 1.0</t>
+    <t>SELFCARE - Pagina sottoscrizione Selfcare SIM Prepagata + Bundle</t>
+  </si>
+  <si>
+    <t>http://selfcare-int-2.pre.tiscali.sys/html/olc.html</t>
+  </si>
+  <si>
+    <t>UNIT 2 - pagina di partenza Tiscali Mobile PREPAGATO - build 1.0</t>
+  </si>
+  <si>
+    <t>SELFCARE - Pagina sottoscrizione Selfcare Upgrade</t>
+  </si>
+  <si>
+    <t>http://selfcare-int-2.pre.tiscali.sys/html/upgrade.html</t>
+  </si>
+  <si>
+    <t>UNIT 2 - Upgrade - build 1.0</t>
   </si>
   <si>
     <t xml:space="preserve">SELFCARE - Pagina MyTiscali </t>
   </si>
   <si>
-    <t xml:space="preserve">http://selfcare-int-2.pre.tiscali.sys/unit/ecare/it_mytiscali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELFCARE Tiscali Dashboard LTE diretta  (esposto in internet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://selfcare-int-2.tiscali.it/Dashboard/lteDashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213.205.34.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dashboard LTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTRANET - Accesso a Tiscali Extranet per amministratore (esposto in internet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://partners.dev.tiscali.it/admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212.123.79.186
+    <t>http://selfcare-int-2.pre.tiscali.sys/unit/ecare/it_mytiscali</t>
+  </si>
+  <si>
+    <t>SELFCARE Tiscali Dashboard LTE diretta  (esposto in internet)</t>
+  </si>
+  <si>
+    <t>http://selfcare-int-2.tiscali.it/Dashboard/lteDashboard</t>
+  </si>
+  <si>
+    <t>213.205.34.199</t>
+  </si>
+  <si>
+    <t>Dashboard LTE</t>
+  </si>
+  <si>
+    <t>EXTRANET - Accesso a Tiscali Extranet per amministratore (esposto in internet)</t>
+  </si>
+  <si>
+    <t>http://partners.dev.tiscali.it/admin</t>
+  </si>
+  <si>
+    <t>212.123.79.186
 10.39.134.214</t>
   </si>
   <si>
-    <t xml:space="preserve">EXTRANET Amministrazione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache 1.3
+    <t>EXTRANET Amministrazione</t>
+  </si>
+  <si>
+    <t>Apache 1.3
 PHP 5.2</t>
   </si>
   <si>
-    <t xml:space="preserve">admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTRANET - Accesso a Tiscali Extranet Partners (esposto in internet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://partners.dev.tiscali.it/profile/login.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTRANET Partner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">utente profilato nell' applicativo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTRANET - DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.39.134.214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTRANET Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySql 5.0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIBCO - Modulo Terze parti Front-End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-sbltools-78216.dev.tiscali.sys/tibcotools/orders/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.39.11.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIBCO Tools - Tiscali Custom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomcat version 6.0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITSDEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIBCO - Web Service TPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:18000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.39.11.160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ws_port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Tomcat 5.5.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIBCO - Web Service Provisioning Engine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:20000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PortOrderReceiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:20100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PortTaskExecute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:20200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PortCRMConfirmation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:20300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PortResubmission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIBCO - Web Service WEBPORTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:51001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELFCARE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:51002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECARE (ECMobileProfile.serviceagent, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIBCO - Web Service EAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:52010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP_SOAP_Private_NRT_Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:52011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP_SOAP_Private_RT_Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:52015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP_SOAP_Public_RT_Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:52110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP_Siebel_Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:52150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP_SOAP_Private_BATCH_Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIBCO - Web Service Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:52160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPSHTTPCoonection(unica, wiphone)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:52163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:52164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://u2ie-tibco.r10.tiscali.com:52165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin port (GetSIMStartPage.html)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEALER STATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dealer-1.int.vas.tiscali.sys/index.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.39.81.201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Application Dealer Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache 2.2.14
+    <t>admin</t>
+  </si>
+  <si>
+    <t>EXTRANET - Accesso a Tiscali Extranet Partners (esposto in internet)</t>
+  </si>
+  <si>
+    <t>http://partners.dev.tiscali.it/profile/login.php</t>
+  </si>
+  <si>
+    <t>EXTRANET Partner</t>
+  </si>
+  <si>
+    <t>utente profilato nell' applicativo.</t>
+  </si>
+  <si>
+    <t>EXTRANET - DB</t>
+  </si>
+  <si>
+    <t>10.39.134.214</t>
+  </si>
+  <si>
+    <t>EXTRANET Database</t>
+  </si>
+  <si>
+    <t>MySql 5.0.17</t>
+  </si>
+  <si>
+    <t>TIBCO - Modulo Terze parti Front-End</t>
+  </si>
+  <si>
+    <t>http://u2ie-sbltools-78216.dev.tiscali.sys/tibcotools/orders/</t>
+  </si>
+  <si>
+    <t>10.39.11.33</t>
+  </si>
+  <si>
+    <t>TIBCO Tools - Tiscali Custom</t>
+  </si>
+  <si>
+    <t>Tomcat version 6.0.35</t>
+  </si>
+  <si>
+    <t>ITSDEV</t>
+  </si>
+  <si>
+    <t>TIBCO - Web Service TPC</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:18000</t>
+  </si>
+  <si>
+    <t>10.39.11.160</t>
+  </si>
+  <si>
+    <t>ws_port</t>
+  </si>
+  <si>
+    <t>Apache Tomcat 5.5.15</t>
+  </si>
+  <si>
+    <t>TIBCO - Web Service Provisioning Engine</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:20000</t>
+  </si>
+  <si>
+    <t>PortOrderReceiver</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:20100</t>
+  </si>
+  <si>
+    <t>PortTaskExecute</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:20200</t>
+  </si>
+  <si>
+    <t>PortCRMConfirmation</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:20300</t>
+  </si>
+  <si>
+    <t>PortResubmission</t>
+  </si>
+  <si>
+    <t>TIBCO - Web Service WEBPORTAL</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:51001</t>
+  </si>
+  <si>
+    <t>SELFCARE</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:51002</t>
+  </si>
+  <si>
+    <t>ECARE (ECMobileProfile.serviceagent, etc.)</t>
+  </si>
+  <si>
+    <t>TIBCO - Web Service EAI</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:52010</t>
+  </si>
+  <si>
+    <t>HTTP_SOAP_Private_NRT_Port</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:52011</t>
+  </si>
+  <si>
+    <t>HTTP_SOAP_Private_RT_Port</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:52015</t>
+  </si>
+  <si>
+    <t>HTTP_SOAP_Public_RT_Port</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:52110</t>
+  </si>
+  <si>
+    <t>HTTP_Siebel_Port</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:52150</t>
+  </si>
+  <si>
+    <t>HTTP_SOAP_Private_BATCH_Port</t>
+  </si>
+  <si>
+    <t>TIBCO - Web Service Mobile</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:52160</t>
+  </si>
+  <si>
+    <t>LPSHTTPCoonection(unica, wiphone)</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:52163</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:52164</t>
+  </si>
+  <si>
+    <t>Port-test</t>
+  </si>
+  <si>
+    <t>http://u2ie-tibco.r10.tiscali.com:52165</t>
+  </si>
+  <si>
+    <t>Admin port (GetSIMStartPage.html)</t>
+  </si>
+  <si>
+    <t>DEALER STATION</t>
+  </si>
+  <si>
+    <t>http://dealer-1.int.vas.tiscali.sys/index.php</t>
+  </si>
+  <si>
+    <t>10.39.81.201</t>
+  </si>
+  <si>
+    <t>Web Application Dealer Station</t>
+  </si>
+  <si>
+    <t>Apache 2.2.14
 PHP 5.3.2</t>
   </si>
   <si>
-    <t xml:space="preserve">DEALER STATION API TIBCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dealer-1.int.vas.tiscali.sys/interface.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servizi esposti verso Tibco/Siebel:
+    <t>DEALER STATION API TIBCO</t>
+  </si>
+  <si>
+    <t>http://dealer-1.int.vas.tiscali.sys/interface.php</t>
+  </si>
+  <si>
+    <t>Servizi esposti verso Tibco/Siebel:
 reopen_contracts
 recoverold_contracts
 validate_sims
@@ -445,265 +450,265 @@
 getsimdetails</t>
   </si>
   <si>
-    <t xml:space="preserve">DEALER STATION API EXTRANET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servizi esposti verso Extranet:
+    <t>DEALER STATION API EXTRANET</t>
+  </si>
+  <si>
+    <t>Servizi esposti verso Extranet:
 sync_dealer
 sync_levels
 sync_one_level</t>
   </si>
   <si>
-    <t xml:space="preserve">DEALER STATION API SELFCARE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dealer-1.int.vas.tiscali.sys/adm_contratti.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servizi esposti verso Selfcare Attachments:
+    <t>DEALER STATION API SELFCARE</t>
+  </si>
+  <si>
+    <t>http://dealer-1.int.vas.tiscali.sys/adm_contratti.php</t>
+  </si>
+  <si>
+    <t>Servizi esposti verso Selfcare Attachments:
 add, lst, del, getfile
 Servizi esposti verso Selfcare acquisition:
 acquisitionRecharge, acquisitionConfirm, acquisitionRollback, changeSIMVerify, validation</t>
   </si>
   <si>
-    <t xml:space="preserve">DEALER STATION DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db-1.pre.vas.tiscali.sys</t>
+    <t>DEALER STATION DB</t>
+  </si>
+  <si>
+    <t>db-1.pre.vas.tiscali.sys</t>
   </si>
   <si>
     <t xml:space="preserve">10.39.81.250 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB tiscali_dealer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySql 5.5.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELFCARE - Servizi per Hosting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://selfcare-int-2.pre.tiscali.sys/unit/selfcare/VDHAccountEntryServlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSTING DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nateris1.pre.vas.tiscali.sys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.39.81.253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PostgreSQL 8.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSTING - CRM Backoffice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nateris1.pre.vas.tiscali.sys/bhp.bo/accounts.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiscali backoffice domini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomcat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSTING - Area clienti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nateris1.pre.vas.tiscali.sys/account.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area clienti Hosting Domini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSTING - Site Builder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=sitebuilder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiscali MySite Premium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSTING - Server Virtuale Base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=vdh.base.12m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server Virtuale Base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSTING - Server Virtuale Special</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=vdh.special.12m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server Virtuale Special</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSTING - Server Virtuale Top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=vdh.top.12m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server Virtuale Top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSTING - Dominio (+Shared +PEC +Sitebuilder)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nateris1.pre.vas.tiscali.sys/fullcheck_domain.action?domain_name=&lt;domain&gt;&amp;domain_tld=com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scegli e personalizza il tuo dominio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAS - PEC standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=pec.silver.standard</t>
+    <t>DB tiscali_dealer</t>
+  </si>
+  <si>
+    <t>MySql 5.5.49</t>
+  </si>
+  <si>
+    <t>SELFCARE - Servizi per Hosting</t>
+  </si>
+  <si>
+    <t>http://selfcare-int-2.pre.tiscali.sys/unit/selfcare/VDHAccountEntryServlet</t>
+  </si>
+  <si>
+    <t>HOSTING DB</t>
+  </si>
+  <si>
+    <t>nateris1.pre.vas.tiscali.sys</t>
+  </si>
+  <si>
+    <t>10.39.81.253</t>
+  </si>
+  <si>
+    <t>PostgreSQL 8.2.7</t>
+  </si>
+  <si>
+    <t>HOSTING - CRM Backoffice</t>
+  </si>
+  <si>
+    <t>http://nateris1.pre.vas.tiscali.sys/bhp.bo/accounts.jsp</t>
+  </si>
+  <si>
+    <t>Tiscali backoffice domini</t>
+  </si>
+  <si>
+    <t>Tomcat</t>
+  </si>
+  <si>
+    <t>HOSTING - Area clienti</t>
+  </si>
+  <si>
+    <t>http://nateris1.pre.vas.tiscali.sys/account.html</t>
+  </si>
+  <si>
+    <t>Area clienti Hosting Domini</t>
+  </si>
+  <si>
+    <t>HOSTING - Site Builder</t>
+  </si>
+  <si>
+    <t>http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=sitebuilder</t>
+  </si>
+  <si>
+    <t>Tiscali MySite Premium</t>
+  </si>
+  <si>
+    <t>HOSTING - Server Virtuale Base</t>
+  </si>
+  <si>
+    <t>http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=vdh.base.12m</t>
+  </si>
+  <si>
+    <t>Server Virtuale Base</t>
+  </si>
+  <si>
+    <t>HOSTING - Server Virtuale Special</t>
+  </si>
+  <si>
+    <t>http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=vdh.special.12m</t>
+  </si>
+  <si>
+    <t>Server Virtuale Special</t>
+  </si>
+  <si>
+    <t>HOSTING - Server Virtuale Top</t>
+  </si>
+  <si>
+    <t>http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=vdh.top.12m</t>
+  </si>
+  <si>
+    <t>Server Virtuale Top</t>
+  </si>
+  <si>
+    <t>HOSTING - Dominio (+Shared +PEC +Sitebuilder)</t>
+  </si>
+  <si>
+    <t>http://nateris1.pre.vas.tiscali.sys/fullcheck_domain.action?domain_name=&lt;domain&gt;&amp;domain_tld=com</t>
+  </si>
+  <si>
+    <t>Scegli e personalizza il tuo dominio</t>
+  </si>
+  <si>
+    <t>VAS - PEC standard</t>
+  </si>
+  <si>
+    <t>http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=pec.silver.standard</t>
   </si>
   <si>
     <t xml:space="preserve">TISCALI PEC SILVER - Scegli e personalizza la tua posta elettronica certificata </t>
   </si>
   <si>
-    <t xml:space="preserve">VAS - PEC Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=pec.gold.standard</t>
+    <t>VAS - PEC Gold</t>
+  </si>
+  <si>
+    <t>http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=pec.gold.standard</t>
   </si>
   <si>
     <t xml:space="preserve">TISCALI PEC GOLD - Scegli e personalizza la tua posta elettronica certificata </t>
   </si>
   <si>
-    <t xml:space="preserve">VAS - PEC Platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=pec.platinum.standard</t>
+    <t>VAS - PEC Platinum</t>
+  </si>
+  <si>
+    <t>http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=pec.platinum.standard</t>
   </si>
   <si>
     <t xml:space="preserve">TISCALI PEC PLATINUM - Scegli e personalizza la tua posta elettronica certificata </t>
   </si>
   <si>
-    <t xml:space="preserve">HOSTING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.39.81.253/bhp.server/ProductCallback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSTING &amp; VAS OSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.39.13.166:8081/ManageUser/services/ManageUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.39.13.166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reseller_domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambiente sviluppo &amp; integrato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.39.13.166:8081/VirtualHostingWS/services/VirtualHostingWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.39.13.166:8081/ManageDomain/services/ManageDomain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.39.13.166:8081/HostingBEInfo/HostingWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.39.13.166:8081/WSProvisioning/SHProvisioning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.39.13.166:8081/TiscaliPEC/PECSubscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.39.13.166:8081/HostingBEInfo/servlet/ProductInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dettagli del prodotto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEN-NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e-Invoicing Gateway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOFAX Workstation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kofax-kc-test.tiscali.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.39.8.232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server Windows con client Kofax di Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrator (locale del server)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOFAX DB Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSSQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numera Stub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://selfcare-int-2.pre.tiscali.sys/unit/it_stub_numera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paypal sdandbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sandbox.paypal.com/cgi-bin/webscr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.0.82.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOFORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://api.sofort.com/api/xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193.104.32.132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Service API per pagamenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">webservices.it
+    <t>HOSTING</t>
+  </si>
+  <si>
+    <t>http://10.39.81.253/bhp.server/ProductCallback</t>
+  </si>
+  <si>
+    <t>HOSTING &amp; VAS OSS</t>
+  </si>
+  <si>
+    <t>http://10.39.13.166:8081/ManageUser/services/ManageUser</t>
+  </si>
+  <si>
+    <t>10.39.13.166</t>
+  </si>
+  <si>
+    <t>reseller_domain</t>
+  </si>
+  <si>
+    <t>Ambiente sviluppo &amp; integrato</t>
+  </si>
+  <si>
+    <t>http://10.39.13.166:8081/VirtualHostingWS/services/VirtualHostingWS</t>
+  </si>
+  <si>
+    <t>http://10.39.13.166:8081/ManageDomain/services/ManageDomain</t>
+  </si>
+  <si>
+    <t>http://10.39.13.166:8081/HostingBEInfo/HostingWS</t>
+  </si>
+  <si>
+    <t>http://10.39.13.166:8081/WSProvisioning/SHProvisioning</t>
+  </si>
+  <si>
+    <t>http://10.39.13.166:8081/TiscaliPEC/PECSubscription</t>
+  </si>
+  <si>
+    <t>http://10.39.13.166:8081/HostingBEInfo/servlet/ProductInfo</t>
+  </si>
+  <si>
+    <t>Dettagli del prodotto</t>
+  </si>
+  <si>
+    <t>OPEN-NET</t>
+  </si>
+  <si>
+    <t>e-Invoicing Gateway</t>
+  </si>
+  <si>
+    <t>KOFAX Workstation</t>
+  </si>
+  <si>
+    <t>kofax-kc-test.tiscali.com</t>
+  </si>
+  <si>
+    <t>10.39.8.232</t>
+  </si>
+  <si>
+    <t>RDP</t>
+  </si>
+  <si>
+    <t>Server Windows con client Kofax di Test</t>
+  </si>
+  <si>
+    <t>Administrator (locale del server)</t>
+  </si>
+  <si>
+    <t>KOFAX DB Server</t>
+  </si>
+  <si>
+    <t>MSSQL</t>
+  </si>
+  <si>
+    <t>Numera Stub</t>
+  </si>
+  <si>
+    <t>http://selfcare-int-2.pre.tiscali.sys/unit/it_stub_numera</t>
+  </si>
+  <si>
+    <t>Paypal sdandbox</t>
+  </si>
+  <si>
+    <t>https://www.sandbox.paypal.com/cgi-bin/webscr</t>
+  </si>
+  <si>
+    <t>173.0.82.77</t>
+  </si>
+  <si>
+    <t>SOFORT</t>
+  </si>
+  <si>
+    <t>https://api.sofort.com/api/xml</t>
+  </si>
+  <si>
+    <t>193.104.32.132</t>
+  </si>
+  <si>
+    <t>Web Service API per pagamenti</t>
+  </si>
+  <si>
+    <t>webservices.it
 webservices.pre.tiscali.sys</t>
   </si>
   <si>
-    <t xml:space="preserve">72.52.4.120
+    <t>72.52.4.120
 10.39.81.209</t>
   </si>
   <si>
-    <t xml:space="preserve">80
+    <t>80
 80</t>
   </si>
   <si>
-    <t xml:space="preserve">API wrapper di PRD per i pagamenti SOFORT
+    <t>API wrapper di PRD per i pagamenti SOFORT
 API wrapper di INTEGRATO per i pagamenti SOFORT (non funzionante)</t>
   </si>
   <si>
@@ -717,139 +722,139 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">GeoLab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service Customer Credit Check (LINCE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGM (freelosophy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://freelosophy.tiscali.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213.205.32.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veniva sviluppato sul pc dello sviluppatore e usava il Database Siebel di integrato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCP (Radius Server)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mail Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://fax.pre.vas.tiscali.sys/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fax.pre.vas.tiscali.sys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pannello cliente FAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache/2.2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAX – Delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deliver-1.pre.vas.tiscali.sys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macchina di delivery fax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAX – DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database FAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postgres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAX – Converter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converter-1.pre.vas.tiscali.sys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converter FAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAX – Webservice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webservices-1.pre.vas.tiscali.sys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Service FAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomcat 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACKUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antivirus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass mailing platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMS Gateway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">webservices-1.vas.pre.tiscali.sys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gateway SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomcat 6/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMS Gateway DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database Gateway SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WebService Hosting / FAX / Macchine Virtuali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomcat 6/7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sviluppo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysql.tp.tiscali.dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database Shared Hosting</t>
+    <t>GeoLab</t>
+  </si>
+  <si>
+    <t>Service Customer Credit Check (LINCE)</t>
+  </si>
+  <si>
+    <t>MGM (freelosophy)</t>
+  </si>
+  <si>
+    <t>http://freelosophy.tiscali.it</t>
+  </si>
+  <si>
+    <t>213.205.32.18</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>Veniva sviluppato sul pc dello sviluppatore e usava il Database Siebel di integrato</t>
+  </si>
+  <si>
+    <t>DCP (Radius Server)</t>
+  </si>
+  <si>
+    <t>OFA</t>
+  </si>
+  <si>
+    <t>LPS</t>
+  </si>
+  <si>
+    <t>Mail Server</t>
+  </si>
+  <si>
+    <t>FAX</t>
+  </si>
+  <si>
+    <t>http://fax.pre.vas.tiscali.sys/</t>
+  </si>
+  <si>
+    <t>fax.pre.vas.tiscali.sys</t>
+  </si>
+  <si>
+    <t>Pannello cliente FAX</t>
+  </si>
+  <si>
+    <t>Apache/2.2.8</t>
+  </si>
+  <si>
+    <t>FAX – Delivery</t>
+  </si>
+  <si>
+    <t>Deliver-1.pre.vas.tiscali.sys</t>
+  </si>
+  <si>
+    <t>Macchina di delivery fax</t>
+  </si>
+  <si>
+    <t>FAX – DB</t>
+  </si>
+  <si>
+    <t>Database FAX</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>FAX – Converter</t>
+  </si>
+  <si>
+    <t>Converter-1.pre.vas.tiscali.sys</t>
+  </si>
+  <si>
+    <t>Converter FAX</t>
+  </si>
+  <si>
+    <t>FAX – Webservice</t>
+  </si>
+  <si>
+    <t>Webservices-1.pre.vas.tiscali.sys</t>
+  </si>
+  <si>
+    <t>Web Service FAX</t>
+  </si>
+  <si>
+    <t>Tomcat 5</t>
+  </si>
+  <si>
+    <t>BACKUP</t>
+  </si>
+  <si>
+    <t>DBU</t>
+  </si>
+  <si>
+    <t>Antivirus</t>
+  </si>
+  <si>
+    <t>Mass mailing platform</t>
+  </si>
+  <si>
+    <t>SIGMA</t>
+  </si>
+  <si>
+    <t>SMS Gateway</t>
+  </si>
+  <si>
+    <t>webservices-1.vas.pre.tiscali.sys</t>
+  </si>
+  <si>
+    <t>Gateway SMS</t>
+  </si>
+  <si>
+    <t>Tomcat 6/8</t>
+  </si>
+  <si>
+    <t>SMS Gateway DB</t>
+  </si>
+  <si>
+    <t>Database Gateway SMS</t>
+  </si>
+  <si>
+    <t>WebService Hosting / FAX / Macchine Virtuali</t>
+  </si>
+  <si>
+    <t>Tomcat 6/7</t>
+  </si>
+  <si>
+    <t>Sviluppo</t>
+  </si>
+  <si>
+    <t>mysql.tp.tiscali.dev</t>
+  </si>
+  <si>
+    <t>Database Shared Hosting</t>
   </si>
   <si>
     <r>
@@ -860,7 +865,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">MySql 5.0.51</t>
+      <t>MySql 5.0.51</t>
     </r>
     <r>
       <rPr>
@@ -871,60 +876,63 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">a</t>
+      <t>a</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">root</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.39.13.167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database Virtual Hosting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.39.13.143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database PowerDNS Hosting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://admin.tp.tiscali.dev/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin.tp.tiscali.dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin Panel Shared Hosting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://client.tp.tiscali.dev/ex_index.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client.tp.tiscali.dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Panel Shared Hosting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vdh1.hs.tiscali.dev/index.php?module=Login&amp;func=loginadmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vdh1.hs.tiscali.dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDH Panel Virtual Hosting</t>
+    <t>root</t>
+  </si>
+  <si>
+    <t>10.39.13.167</t>
+  </si>
+  <si>
+    <t>Database Virtual Hosting</t>
+  </si>
+  <si>
+    <t>10.39.13.143</t>
+  </si>
+  <si>
+    <t>Database PowerDNS Hosting</t>
+  </si>
+  <si>
+    <t>http://admin.tp.tiscali.dev/</t>
+  </si>
+  <si>
+    <t>admin.tp.tiscali.dev</t>
+  </si>
+  <si>
+    <t>Admin Panel Shared Hosting</t>
+  </si>
+  <si>
+    <t>http://client.tp.tiscali.dev/ex_index.php</t>
+  </si>
+  <si>
+    <t>client.tp.tiscali.dev</t>
+  </si>
+  <si>
+    <t>Client Panel Shared Hosting</t>
+  </si>
+  <si>
+    <t>http://vdh1.hs.tiscali.dev/index.php?module=Login&amp;func=loginadmin</t>
+  </si>
+  <si>
+    <t>vdh1.hs.tiscali.dev</t>
+  </si>
+  <si>
+    <t>VDH Panel Virtual Hosting</t>
+  </si>
+  <si>
+    <t>geo.tiscali.it</t>
+  </si>
+  <si>
+    <t>TypeRight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -933,22 +941,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -963,7 +956,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
@@ -971,7 +964,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
@@ -979,7 +972,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -987,7 +980,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="8"/>
       <color rgb="FF0563C1"/>
       <name val="Arial Narrow"/>
@@ -1038,174 +1031,160 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1264,33 +1243,307 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.5222672064777"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="10.7109375"/>
+    <col min="2" max="2" width="12.140625"/>
+    <col min="3" max="3" width="63.5703125"/>
+    <col min="4" max="4" width="17.42578125"/>
+    <col min="5" max="5" width="29.5703125"/>
+    <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,11 +1560,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="3">
         <v>0.1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1325,44 +1578,35 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:U89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK89"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B82" activeCellId="0" sqref="B82"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="45.7408906882591"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="4" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="20" min="8" style="7" width="2.25101214574899"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="6" width="65.5587044534413"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="6" width="27.1012145748988"/>
+    <col min="1" max="1" width="45.7109375" style="4"/>
+    <col min="2" max="2" width="35.28515625" style="4"/>
+    <col min="3" max="3" width="8.5703125" style="4"/>
+    <col min="4" max="4" width="5.140625" style="5"/>
+    <col min="5" max="5" width="46.85546875" style="4"/>
+    <col min="6" max="6" width="28.140625" style="4"/>
+    <col min="7" max="7" width="12.140625" style="6"/>
+    <col min="8" max="20" width="2.28515625" style="7"/>
+    <col min="21" max="21" width="65.5703125" style="6"/>
+    <col min="22" max="1025" width="27.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -1427,7 +1671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -1437,7 +1681,7 @@
       <c r="C2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="13">
         <v>80</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -1464,7 +1708,7 @@
       <c r="T2" s="14"/>
       <c r="U2" s="15"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>35</v>
       </c>
@@ -1474,7 +1718,7 @@
       <c r="C3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="13">
         <v>1521</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -1511,7 +1755,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="15"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>42</v>
       </c>
@@ -1521,7 +1765,7 @@
       <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="13">
         <v>80</v>
       </c>
       <c r="E4" s="12" t="s">
@@ -1548,7 +1792,7 @@
       <c r="T4" s="14"/>
       <c r="U4" s="15"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>46</v>
       </c>
@@ -1558,7 +1802,7 @@
       <c r="C5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="13">
         <v>80</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -1587,7 +1831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>52</v>
       </c>
@@ -1597,7 +1841,7 @@
       <c r="C6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="13">
         <v>80</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -1622,7 +1866,7 @@
       <c r="T6" s="16"/>
       <c r="U6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>57</v>
       </c>
@@ -1632,7 +1876,7 @@
       <c r="C7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="13">
         <v>80</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -1657,7 +1901,7 @@
       <c r="T7" s="16"/>
       <c r="U7" s="15"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>60</v>
       </c>
@@ -1667,7 +1911,7 @@
       <c r="C8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="13">
         <v>80</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -1692,7 +1936,7 @@
       <c r="T8" s="16"/>
       <c r="U8" s="15"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>63</v>
       </c>
@@ -1702,7 +1946,7 @@
       <c r="C9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="13">
         <v>80</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -1727,7 +1971,7 @@
       <c r="T9" s="16"/>
       <c r="U9" s="15"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
@@ -1737,7 +1981,7 @@
       <c r="C10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="13">
         <v>80</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -1762,7 +2006,7 @@
       <c r="T10" s="16"/>
       <c r="U10" s="15"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>69</v>
       </c>
@@ -1772,7 +2016,7 @@
       <c r="C11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="13">
         <v>80</v>
       </c>
       <c r="E11" s="12" t="s">
@@ -1801,7 +2045,7 @@
       <c r="T11" s="16"/>
       <c r="U11" s="15"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>75</v>
       </c>
@@ -1811,7 +2055,7 @@
       <c r="C12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="13">
         <v>80</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -1838,7 +2082,7 @@
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>79</v>
       </c>
@@ -1846,7 +2090,7 @@
       <c r="C13" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="13">
         <v>3306</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -1871,7 +2115,7 @@
       <c r="T13" s="14"/>
       <c r="U13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>83</v>
       </c>
@@ -1881,7 +2125,7 @@
       <c r="C14" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="13">
         <v>80</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -1908,7 +2152,7 @@
       <c r="T14" s="14"/>
       <c r="U14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>89</v>
       </c>
@@ -1918,7 +2162,7 @@
       <c r="C15" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="18">
         <v>18000</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -1943,7 +2187,7 @@
       <c r="T15" s="16"/>
       <c r="U15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>94</v>
       </c>
@@ -1953,7 +2197,7 @@
       <c r="C16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D16" s="18">
         <v>20000</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -1978,7 +2222,7 @@
       <c r="T16" s="16"/>
       <c r="U16" s="15"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>94</v>
       </c>
@@ -1988,7 +2232,7 @@
       <c r="C17" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="18" t="n">
+      <c r="D17" s="18">
         <v>20100</v>
       </c>
       <c r="E17" s="19" t="s">
@@ -2013,7 +2257,7 @@
       <c r="T17" s="16"/>
       <c r="U17" s="15"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>94</v>
       </c>
@@ -2023,7 +2267,7 @@
       <c r="C18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D18" s="18">
         <v>20200</v>
       </c>
       <c r="E18" s="19" t="s">
@@ -2050,7 +2294,7 @@
       <c r="T18" s="16"/>
       <c r="U18" s="15"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>94</v>
       </c>
@@ -2060,7 +2304,7 @@
       <c r="C19" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D19" s="18">
         <v>20300</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -2085,7 +2329,7 @@
       <c r="T19" s="16"/>
       <c r="U19" s="15"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>103</v>
       </c>
@@ -2095,7 +2339,7 @@
       <c r="C20" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="13" t="n">
+      <c r="D20" s="13">
         <v>51001</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -2124,7 +2368,7 @@
       <c r="T20" s="16"/>
       <c r="U20" s="15"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>103</v>
       </c>
@@ -2134,7 +2378,7 @@
       <c r="C21" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="13" t="n">
+      <c r="D21" s="13">
         <v>51002</v>
       </c>
       <c r="E21" s="15" t="s">
@@ -2167,7 +2411,7 @@
       <c r="T21" s="16"/>
       <c r="U21" s="15"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>108</v>
       </c>
@@ -2177,7 +2421,7 @@
       <c r="C22" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="13" t="n">
+      <c r="D22" s="13">
         <v>52010</v>
       </c>
       <c r="E22" s="12" t="s">
@@ -2204,7 +2448,7 @@
       <c r="T22" s="16"/>
       <c r="U22" s="15"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>108</v>
       </c>
@@ -2214,7 +2458,7 @@
       <c r="C23" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="13" t="n">
+      <c r="D23" s="13">
         <v>52011</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -2245,7 +2489,7 @@
       <c r="T23" s="16"/>
       <c r="U23" s="15"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>108</v>
       </c>
@@ -2255,7 +2499,7 @@
       <c r="C24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="13" t="n">
+      <c r="D24" s="13">
         <v>52015</v>
       </c>
       <c r="E24" s="12" t="s">
@@ -2284,7 +2528,7 @@
       <c r="T24" s="16"/>
       <c r="U24" s="15"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>108</v>
       </c>
@@ -2294,7 +2538,7 @@
       <c r="C25" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="13" t="n">
+      <c r="D25" s="13">
         <v>52110</v>
       </c>
       <c r="E25" s="12" t="s">
@@ -2319,7 +2563,7 @@
       <c r="T25" s="16"/>
       <c r="U25" s="15"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>108</v>
       </c>
@@ -2329,7 +2573,7 @@
       <c r="C26" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="13" t="n">
+      <c r="D26" s="13">
         <v>52150</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -2354,7 +2598,7 @@
       <c r="T26" s="16"/>
       <c r="U26" s="15"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>119</v>
       </c>
@@ -2364,7 +2608,7 @@
       <c r="C27" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="18" t="n">
+      <c r="D27" s="18">
         <v>52160</v>
       </c>
       <c r="E27" s="19" t="s">
@@ -2389,7 +2633,7 @@
       <c r="T27" s="21"/>
       <c r="U27" s="20"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>119</v>
       </c>
@@ -2399,7 +2643,7 @@
       <c r="C28" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="18" t="n">
+      <c r="D28" s="18">
         <v>52163</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -2426,7 +2670,7 @@
       <c r="T28" s="21"/>
       <c r="U28" s="20"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>119</v>
       </c>
@@ -2436,7 +2680,7 @@
       <c r="C29" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="18" t="n">
+      <c r="D29" s="18">
         <v>52164</v>
       </c>
       <c r="E29" s="19" t="s">
@@ -2461,7 +2705,7 @@
       <c r="T29" s="21"/>
       <c r="U29" s="20"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>119</v>
       </c>
@@ -2471,7 +2715,7 @@
       <c r="C30" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="18" t="n">
+      <c r="D30" s="18">
         <v>52165</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -2496,7 +2740,7 @@
       <c r="T30" s="21"/>
       <c r="U30" s="20"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>128</v>
       </c>
@@ -2506,7 +2750,7 @@
       <c r="C31" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="13" t="n">
+      <c r="D31" s="13">
         <v>80</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -2533,7 +2777,7 @@
       <c r="T31" s="16"/>
       <c r="U31" s="15"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>133</v>
       </c>
@@ -2543,7 +2787,7 @@
       <c r="C32" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="13" t="n">
+      <c r="D32" s="13">
         <v>80</v>
       </c>
       <c r="E32" s="12" t="s">
@@ -2570,7 +2814,7 @@
       <c r="T32" s="22"/>
       <c r="U32" s="15"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>136</v>
       </c>
@@ -2580,7 +2824,7 @@
       <c r="C33" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="13" t="n">
+      <c r="D33" s="13">
         <v>80</v>
       </c>
       <c r="E33" s="12" t="s">
@@ -2607,7 +2851,7 @@
       <c r="T33" s="22"/>
       <c r="U33" s="15"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>138</v>
       </c>
@@ -2617,7 +2861,7 @@
       <c r="C34" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="13" t="n">
+      <c r="D34" s="13">
         <v>80</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -2644,7 +2888,7 @@
       <c r="T34" s="22"/>
       <c r="U34" s="15"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>141</v>
       </c>
@@ -2654,7 +2898,7 @@
       <c r="C35" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="13" t="n">
+      <c r="D35" s="13">
         <v>3306</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -2679,7 +2923,7 @@
       <c r="T35" s="22"/>
       <c r="U35" s="15"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>146</v>
       </c>
@@ -2689,7 +2933,7 @@
       <c r="C36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="13" t="n">
+      <c r="D36" s="13">
         <v>80</v>
       </c>
       <c r="E36" s="12"/>
@@ -2714,7 +2958,7 @@
       <c r="T36" s="22"/>
       <c r="U36" s="15"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>148</v>
       </c>
@@ -2724,7 +2968,7 @@
       <c r="C37" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="13" t="n">
+      <c r="D37" s="13">
         <v>5432</v>
       </c>
       <c r="E37" s="12"/>
@@ -2747,7 +2991,7 @@
       <c r="T37" s="22"/>
       <c r="U37" s="15"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>152</v>
       </c>
@@ -2757,7 +3001,7 @@
       <c r="C38" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="13" t="n">
+      <c r="D38" s="13">
         <v>80</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -2784,7 +3028,7 @@
       <c r="T38" s="22"/>
       <c r="U38" s="15"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>156</v>
       </c>
@@ -2794,7 +3038,7 @@
       <c r="C39" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="13" t="n">
+      <c r="D39" s="13">
         <v>80</v>
       </c>
       <c r="E39" s="12" t="s">
@@ -2819,7 +3063,7 @@
       <c r="T39" s="22"/>
       <c r="U39" s="15"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>159</v>
       </c>
@@ -2829,7 +3073,7 @@
       <c r="C40" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="13" t="n">
+      <c r="D40" s="13">
         <v>80</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -2854,7 +3098,7 @@
       <c r="T40" s="22"/>
       <c r="U40" s="15"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>162</v>
       </c>
@@ -2864,7 +3108,7 @@
       <c r="C41" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="13" t="n">
+      <c r="D41" s="13">
         <v>80</v>
       </c>
       <c r="E41" s="12" t="s">
@@ -2889,7 +3133,7 @@
       <c r="T41" s="22"/>
       <c r="U41" s="15"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>165</v>
       </c>
@@ -2899,7 +3143,7 @@
       <c r="C42" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="13" t="n">
+      <c r="D42" s="13">
         <v>80</v>
       </c>
       <c r="E42" s="12" t="s">
@@ -2924,7 +3168,7 @@
       <c r="T42" s="22"/>
       <c r="U42" s="15"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>168</v>
       </c>
@@ -2934,7 +3178,7 @@
       <c r="C43" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="13" t="n">
+      <c r="D43" s="13">
         <v>80</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -2959,7 +3203,7 @@
       <c r="T43" s="22"/>
       <c r="U43" s="15"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>171</v>
       </c>
@@ -2969,7 +3213,7 @@
       <c r="C44" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="13" t="n">
+      <c r="D44" s="13">
         <v>80</v>
       </c>
       <c r="E44" s="12" t="s">
@@ -2994,7 +3238,7 @@
       <c r="T44" s="22"/>
       <c r="U44" s="15"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>174</v>
       </c>
@@ -3004,7 +3248,7 @@
       <c r="C45" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="13" t="n">
+      <c r="D45" s="13">
         <v>80</v>
       </c>
       <c r="E45" s="12" t="s">
@@ -3029,7 +3273,7 @@
       <c r="T45" s="22"/>
       <c r="U45" s="15"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>177</v>
       </c>
@@ -3039,7 +3283,7 @@
       <c r="C46" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="13" t="n">
+      <c r="D46" s="13">
         <v>80</v>
       </c>
       <c r="E46" s="12" t="s">
@@ -3064,7 +3308,7 @@
       <c r="T46" s="22"/>
       <c r="U46" s="15"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>180</v>
       </c>
@@ -3074,7 +3318,7 @@
       <c r="C47" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="13" t="n">
+      <c r="D47" s="13">
         <v>80</v>
       </c>
       <c r="E47" s="12" t="s">
@@ -3099,7 +3343,7 @@
       <c r="T47" s="22"/>
       <c r="U47" s="15"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>183</v>
       </c>
@@ -3109,7 +3353,7 @@
       <c r="C48" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="13" t="n">
+      <c r="D48" s="13">
         <v>80</v>
       </c>
       <c r="E48" s="12"/>
@@ -3132,7 +3376,7 @@
       <c r="T48" s="22"/>
       <c r="U48" s="15"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>185</v>
       </c>
@@ -3142,7 +3386,7 @@
       <c r="C49" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D49" s="13" t="n">
+      <c r="D49" s="13">
         <v>8081</v>
       </c>
       <c r="E49" s="12"/>
@@ -3171,7 +3415,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>185</v>
       </c>
@@ -3181,7 +3425,7 @@
       <c r="C50" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D50" s="13" t="n">
+      <c r="D50" s="13">
         <v>8081</v>
       </c>
       <c r="E50" s="12"/>
@@ -3206,7 +3450,7 @@
       <c r="T50" s="22"/>
       <c r="U50" s="15"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>185</v>
       </c>
@@ -3216,7 +3460,7 @@
       <c r="C51" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="13" t="n">
+      <c r="D51" s="13">
         <v>8081</v>
       </c>
       <c r="E51" s="12"/>
@@ -3241,7 +3485,7 @@
       <c r="T51" s="22"/>
       <c r="U51" s="15"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>185</v>
       </c>
@@ -3251,7 +3495,7 @@
       <c r="C52" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D52" s="13" t="n">
+      <c r="D52" s="13">
         <v>8081</v>
       </c>
       <c r="E52" s="12"/>
@@ -3276,7 +3520,7 @@
       <c r="T52" s="22"/>
       <c r="U52" s="15"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>185</v>
       </c>
@@ -3286,7 +3530,7 @@
       <c r="C53" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D53" s="13" t="n">
+      <c r="D53" s="13">
         <v>8081</v>
       </c>
       <c r="E53" s="12"/>
@@ -3311,7 +3555,7 @@
       <c r="T53" s="22"/>
       <c r="U53" s="15"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>185</v>
       </c>
@@ -3321,7 +3565,7 @@
       <c r="C54" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D54" s="13" t="n">
+      <c r="D54" s="13">
         <v>8081</v>
       </c>
       <c r="E54" s="12"/>
@@ -3346,7 +3590,7 @@
       <c r="T54" s="22"/>
       <c r="U54" s="15"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>185</v>
       </c>
@@ -3356,7 +3600,7 @@
       <c r="C55" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D55" s="13" t="n">
+      <c r="D55" s="13">
         <v>8081</v>
       </c>
       <c r="E55" s="12" t="s">
@@ -3383,7 +3627,7 @@
       <c r="T55" s="22"/>
       <c r="U55" s="15"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>197</v>
       </c>
@@ -3408,7 +3652,7 @@
       <c r="T56" s="22"/>
       <c r="U56" s="15"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>198</v>
       </c>
@@ -3433,7 +3677,7 @@
       <c r="T57" s="22"/>
       <c r="U57" s="15"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>199</v>
       </c>
@@ -3468,7 +3712,7 @@
       <c r="T58" s="22"/>
       <c r="U58" s="15"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>205</v>
       </c>
@@ -3499,7 +3743,7 @@
       <c r="T59" s="22"/>
       <c r="U59" s="15"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>207</v>
       </c>
@@ -3509,7 +3753,7 @@
       <c r="C60" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="13" t="n">
+      <c r="D60" s="13">
         <v>80</v>
       </c>
       <c r="E60" s="12"/>
@@ -3530,7 +3774,7 @@
       <c r="T60" s="22"/>
       <c r="U60" s="15"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>209</v>
       </c>
@@ -3540,7 +3784,7 @@
       <c r="C61" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D61" s="13" t="n">
+      <c r="D61" s="13">
         <v>443</v>
       </c>
       <c r="E61" s="12"/>
@@ -3561,7 +3805,7 @@
       <c r="T61" s="22"/>
       <c r="U61" s="15"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>212</v>
       </c>
@@ -3571,7 +3815,7 @@
       <c r="C62" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D62" s="13" t="n">
+      <c r="D62" s="13">
         <v>443</v>
       </c>
       <c r="E62" s="12"/>
@@ -3594,7 +3838,7 @@
       </c>
       <c r="U62" s="15"/>
     </row>
-    <row r="63" customFormat="false" ht="141" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:21" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>215</v>
       </c>
@@ -3633,24 +3877,38 @@
         <v>220</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B64" s="12"/>
+      <c r="B64" s="12" t="s">
+        <v>281</v>
+      </c>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
-      <c r="E64" s="12"/>
+      <c r="E64" s="12" t="s">
+        <v>282</v>
+      </c>
       <c r="F64" s="12"/>
       <c r="G64" s="15"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
+      <c r="H64" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
+      <c r="N64" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O64" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="P64" s="22"/>
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
@@ -3658,7 +3916,7 @@
       <c r="T64" s="22"/>
       <c r="U64" s="15"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>222</v>
       </c>
@@ -3685,7 +3943,7 @@
       <c r="T65" s="22"/>
       <c r="U65" s="15"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>223</v>
       </c>
@@ -3695,7 +3953,7 @@
       <c r="C66" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D66" s="13" t="n">
+      <c r="D66" s="13">
         <v>80</v>
       </c>
       <c r="E66" s="12" t="s">
@@ -3724,7 +3982,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>228</v>
       </c>
@@ -3749,7 +4007,7 @@
       <c r="T67" s="22"/>
       <c r="U67" s="15"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>229</v>
       </c>
@@ -3774,7 +4032,7 @@
       <c r="T68" s="22"/>
       <c r="U68" s="15"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>230</v>
       </c>
@@ -3799,7 +4057,7 @@
       <c r="T69" s="22"/>
       <c r="U69" s="15"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>231</v>
       </c>
@@ -3824,7 +4082,7 @@
       <c r="T70" s="22"/>
       <c r="U70" s="15"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>232</v>
       </c>
@@ -3834,7 +4092,7 @@
       <c r="C71" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D71" s="13" t="n">
+      <c r="D71" s="13">
         <v>80</v>
       </c>
       <c r="E71" s="12" t="s">
@@ -3861,7 +4119,7 @@
       <c r="T71" s="22"/>
       <c r="U71" s="15"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>237</v>
       </c>
@@ -3892,7 +4150,7 @@
       <c r="T72" s="22"/>
       <c r="U72" s="15"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>240</v>
       </c>
@@ -3925,7 +4183,7 @@
       <c r="T73" s="22"/>
       <c r="U73" s="15"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>243</v>
       </c>
@@ -3956,7 +4214,7 @@
       <c r="T74" s="22"/>
       <c r="U74" s="15"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>246</v>
       </c>
@@ -3989,7 +4247,7 @@
       <c r="T75" s="22"/>
       <c r="U75" s="15"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>250</v>
       </c>
@@ -4014,7 +4272,7 @@
       <c r="T76" s="22"/>
       <c r="U76" s="15"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>251</v>
       </c>
@@ -4039,7 +4297,7 @@
       <c r="T77" s="22"/>
       <c r="U77" s="15"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
         <v>252</v>
       </c>
@@ -4064,7 +4322,7 @@
       <c r="T78" s="22"/>
       <c r="U78" s="15"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
         <v>253</v>
       </c>
@@ -4089,7 +4347,7 @@
       <c r="T79" s="22"/>
       <c r="U79" s="15"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>254</v>
       </c>
@@ -4114,7 +4372,7 @@
       <c r="T80" s="22"/>
       <c r="U80" s="15"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>255</v>
       </c>
@@ -4147,7 +4405,7 @@
       <c r="T81" s="22"/>
       <c r="U81" s="15"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>259</v>
       </c>
@@ -4178,7 +4436,7 @@
       <c r="T82" s="22"/>
       <c r="U82" s="15"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>185</v>
       </c>
@@ -4188,7 +4446,7 @@
       <c r="C83" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D83" s="13" t="n">
+      <c r="D83" s="13">
         <v>8081</v>
       </c>
       <c r="E83" s="12" t="s">
@@ -4217,7 +4475,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>185</v>
       </c>
@@ -4225,7 +4483,7 @@
       <c r="C84" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D84" s="13" t="n">
+      <c r="D84" s="13">
         <v>3306</v>
       </c>
       <c r="E84" s="12" t="s">
@@ -4256,7 +4514,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>185</v>
       </c>
@@ -4264,7 +4522,7 @@
       <c r="C85" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D85" s="13" t="n">
+      <c r="D85" s="13">
         <v>3306</v>
       </c>
       <c r="E85" s="12" t="s">
@@ -4295,7 +4553,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>185</v>
       </c>
@@ -4303,7 +4561,7 @@
       <c r="C86" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="13" t="n">
+      <c r="D86" s="13">
         <v>3306</v>
       </c>
       <c r="E86" s="12" t="s">
@@ -4334,7 +4592,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>185</v>
       </c>
@@ -4344,7 +4602,7 @@
       <c r="C87" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D87" s="13" t="n">
+      <c r="D87" s="13">
         <v>80</v>
       </c>
       <c r="E87" s="12" t="s">
@@ -4375,7 +4633,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>185</v>
       </c>
@@ -4385,7 +4643,7 @@
       <c r="C88" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D88" s="13" t="n">
+      <c r="D88" s="13">
         <v>80</v>
       </c>
       <c r="E88" s="12" t="s">
@@ -4414,7 +4672,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>185</v>
       </c>
@@ -4424,7 +4682,7 @@
       <c r="C89" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D89" s="13" t="n">
+      <c r="D89" s="13">
         <v>80</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -4457,60 +4715,55 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://sbl-app-devnode01.dev.tiscali.sys/callcenter_ita/start.swe"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://lnx-db-intnode01.dev.tiscali.sys"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://sbl-app-devnode01.dev.tiscali.sys/eai_ita/start.swe"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://selfcare-int-1.pre.tiscali.sys/unit/getmytiscaliconf "/>
-    <hyperlink ref="B6" r:id="rId5" display="http://selfcare-int-2.pre.tiscali.sys/html/selfcare.html"/>
-    <hyperlink ref="B7" r:id="rId6" display="http://selfcare-int-2.pre.tiscali.sys/html/olc.html"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://selfcare-int-2.pre.tiscali.sys/html/upgrade.html"/>
-    <hyperlink ref="B9" r:id="rId8" display="http://selfcare-int-2.pre.tiscali.sys/unit/ecare/it_mytiscali"/>
-    <hyperlink ref="B10" r:id="rId9" display="http://selfcare-int-2.tiscali.it/Dashboard/lteDashboard"/>
-    <hyperlink ref="B11" r:id="rId10" display="http://partners.dev.tiscali.it/admin"/>
-    <hyperlink ref="B12" r:id="rId11" display="http://partners.dev.tiscali.it/profile/login.php"/>
-    <hyperlink ref="B14" r:id="rId12" display="http://u2ie-sbltools-78216.dev.tiscali.sys/tibcotools/orders/"/>
-    <hyperlink ref="B15" r:id="rId13" display="http://u2ie-tibco.r10.tiscali.com:18000"/>
-    <hyperlink ref="B16" r:id="rId14" display="http://u2ie-tibco.r10.tiscali.com:20000"/>
-    <hyperlink ref="B17" r:id="rId15" display="http://u2ie-tibco.r10.tiscali.com:20100"/>
-    <hyperlink ref="B18" r:id="rId16" display="http://u2ie-tibco.r10.tiscali.com:20200"/>
-    <hyperlink ref="B19" r:id="rId17" display="http://u2ie-tibco.r10.tiscali.com:20300"/>
-    <hyperlink ref="B20" r:id="rId18" display="http://u2ie-tibco.r10.tiscali.com:51001"/>
-    <hyperlink ref="B21" r:id="rId19" display="http://u2ie-tibco.r10.tiscali.com:51002"/>
-    <hyperlink ref="B22" r:id="rId20" display="http://u2ie-tibco.r10.tiscali.com:52010"/>
-    <hyperlink ref="B23" r:id="rId21" display="http://u2ie-tibco.r10.tiscali.com:52011"/>
-    <hyperlink ref="B24" r:id="rId22" display="http://u2ie-tibco.r10.tiscali.com:52015"/>
-    <hyperlink ref="B25" r:id="rId23" display="http://u2ie-tibco.r10.tiscali.com:52110"/>
-    <hyperlink ref="B26" r:id="rId24" display="http://u2ie-tibco.r10.tiscali.com:52150"/>
-    <hyperlink ref="B27" r:id="rId25" display="http://u2ie-tibco.r10.tiscali.com:52160"/>
-    <hyperlink ref="B28" r:id="rId26" display="http://u2ie-tibco.r10.tiscali.com:52163"/>
-    <hyperlink ref="B29" r:id="rId27" display="http://u2ie-tibco.r10.tiscali.com:52164"/>
-    <hyperlink ref="B30" r:id="rId28" display="http://u2ie-tibco.r10.tiscali.com:52165"/>
-    <hyperlink ref="B31" r:id="rId29" display="http://dealer-1.int.vas.tiscali.sys/index.php"/>
-    <hyperlink ref="B32" r:id="rId30" display="http://dealer-1.int.vas.tiscali.sys/interface.php"/>
-    <hyperlink ref="B33" r:id="rId31" display="http://dealer-1.int.vas.tiscali.sys/interface.php"/>
-    <hyperlink ref="B34" r:id="rId32" display="http://dealer-1.int.vas.tiscali.sys/adm_contratti.php"/>
-    <hyperlink ref="B38" r:id="rId33" display="http://nateris1.pre.vas.tiscali.sys/bhp.bo/accounts.jsp"/>
-    <hyperlink ref="B39" r:id="rId34" display="http://nateris1.pre.vas.tiscali.sys/account.html"/>
-    <hyperlink ref="B40" r:id="rId35" display="http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=sitebuilder"/>
-    <hyperlink ref="B41" r:id="rId36" display="http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=vdh.base.12m"/>
-    <hyperlink ref="B42" r:id="rId37" display="http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=vdh.special.12m"/>
-    <hyperlink ref="B43" r:id="rId38" display="http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=vdh.top.12m"/>
-    <hyperlink ref="B44" r:id="rId39" display="http://nateris1.pre.vas.tiscali.sys/fullcheck_domain.action?domain_name=&lt;domain&gt;&amp;domain_tld=com"/>
-    <hyperlink ref="B45" r:id="rId40" display="http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=pec.silver.standard"/>
-    <hyperlink ref="B46" r:id="rId41" display="http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=pec.gold.standard"/>
-    <hyperlink ref="B47" r:id="rId42" display="http://nateris1.pre.vas.tiscali.sys/product.html?offer_product_id=pec.platinum.standard"/>
-    <hyperlink ref="B49" r:id="rId43" display="http://10.39.13.166:8081/ManageUser/services/ManageUser"/>
-    <hyperlink ref="B60" r:id="rId44" display="http://selfcare-int-2.pre.tiscali.sys/unit/it_stub_numera"/>
-    <hyperlink ref="B61" r:id="rId45" display="https://www.sandbox.paypal.com/cgi-bin/webscr"/>
-    <hyperlink ref="B62" r:id="rId46" display="https://api.sofort.com/api/xml"/>
-    <hyperlink ref="B66" r:id="rId47" display="http://freelosophy.tiscali.it"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B21" r:id="rId19"/>
+    <hyperlink ref="B22" r:id="rId20"/>
+    <hyperlink ref="B23" r:id="rId21"/>
+    <hyperlink ref="B24" r:id="rId22"/>
+    <hyperlink ref="B25" r:id="rId23"/>
+    <hyperlink ref="B26" r:id="rId24"/>
+    <hyperlink ref="B27" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId29"/>
+    <hyperlink ref="B32" r:id="rId30"/>
+    <hyperlink ref="B33" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B38" r:id="rId33"/>
+    <hyperlink ref="B39" r:id="rId34"/>
+    <hyperlink ref="B40" r:id="rId35"/>
+    <hyperlink ref="B41" r:id="rId36"/>
+    <hyperlink ref="B42" r:id="rId37"/>
+    <hyperlink ref="B43" r:id="rId38"/>
+    <hyperlink ref="B44" r:id="rId39"/>
+    <hyperlink ref="B45" r:id="rId40"/>
+    <hyperlink ref="B46" r:id="rId41"/>
+    <hyperlink ref="B47" r:id="rId42"/>
+    <hyperlink ref="B49" r:id="rId43"/>
+    <hyperlink ref="B60" r:id="rId44"/>
+    <hyperlink ref="B61" r:id="rId45"/>
+    <hyperlink ref="B62" r:id="rId46"/>
+    <hyperlink ref="B66" r:id="rId47"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/trunk/Documentazione Generale/Tiscali - BSS - SIT - Environments.xlsx
+++ b/trunk/Documentazione Generale/Tiscali - BSS - SIT - Environments.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="290">
   <si>
     <t>Data</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>http://selfcare-int-2.pre.tiscali.sys/unit/ecare/it_mytiscali</t>
-  </si>
-  <si>
-    <t>SELFCARE Tiscali Dashboard LTE diretta  (esposto in internet)</t>
   </si>
   <si>
     <t>http://selfcare-int-2.tiscali.it/Dashboard/lteDashboard</t>
@@ -927,12 +924,40 @@
   <si>
     <t>TypeRight</t>
   </si>
+  <si>
+    <t>SELFCARE - Tiscali Dashboard LTE diretta  (esposto in internet)</t>
+  </si>
+  <si>
+    <t>Server visibile in Internet</t>
+  </si>
+  <si>
+    <t>DB suite Kofax</t>
+  </si>
+  <si>
+    <t>GENEVA</t>
+  </si>
+  <si>
+    <t>s10-db-devnode01.dev.tiscali.sys</t>
+  </si>
+  <si>
+    <t>Geneva</t>
+  </si>
+  <si>
+    <t>Oracle9i Enterprise Edition Release 9.2.0.8.0 - 64bit Production.
+PL/SQL Release 9.2.0.8.0 - Production.
+CORE 9.2.0.8.0 Production.
+TNS for Solaris: Version 9.2.0.8.0 - Production.
+NLSRTL Version 9.2.0.8.0 - Production.</t>
+  </si>
+  <si>
+    <t>geneva5, geneva_admin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1009,6 +1034,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1082,7 +1114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1149,6 +1181,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1585,11 +1620,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK89"/>
+  <dimension ref="A1:AMK90"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,8 +1633,8 @@
     <col min="2" max="2" width="35.28515625" style="4"/>
     <col min="3" max="3" width="8.5703125" style="4"/>
     <col min="4" max="4" width="5.140625" style="5"/>
-    <col min="5" max="5" width="46.85546875" style="4"/>
-    <col min="6" max="6" width="28.140625" style="4"/>
+    <col min="5" max="5" width="41.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="6"/>
     <col min="8" max="20" width="2.28515625" style="7"/>
     <col min="21" max="21" width="65.5703125" style="6"/>
@@ -1973,19 +2008,19 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="D10" s="13">
         <v>80</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -2004,29 +2039,31 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
-      <c r="U10" s="15"/>
+      <c r="U10" s="15" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="D11" s="13">
         <v>80</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>41</v>
@@ -2043,29 +2080,31 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
-      <c r="U11" s="15"/>
+      <c r="U11" s="15" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="C12" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="13">
         <v>80</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -2080,24 +2119,26 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="15"/>
+      <c r="U12" s="15" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="13">
         <v>3306</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="14"/>
@@ -2117,25 +2158,25 @@
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="D14" s="13">
         <v>80</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -2154,22 +2195,22 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="D15" s="18">
         <v>18000</v>
       </c>
       <c r="E15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
@@ -2189,22 +2230,22 @@
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="C16" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="18">
         <v>20000</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
@@ -2224,22 +2265,22 @@
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="18">
         <v>20100</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="16"/>
@@ -2259,22 +2300,22 @@
     </row>
     <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="18">
         <v>20200</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
@@ -2296,22 +2337,22 @@
     </row>
     <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="18">
         <v>20300</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
@@ -2331,22 +2372,22 @@
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>104</v>
-      </c>
       <c r="C20" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="13">
         <v>51001</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16" t="s">
@@ -2370,22 +2411,22 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="13">
         <v>51002</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16" t="s">
@@ -2413,22 +2454,22 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="C22" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="13">
         <v>52010</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
@@ -2450,22 +2491,22 @@
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="13">
         <v>52011</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="16" t="s">
@@ -2491,22 +2532,22 @@
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="13">
         <v>52015</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
@@ -2530,22 +2571,22 @@
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="13">
         <v>52110</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="16"/>
@@ -2565,22 +2606,22 @@
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="13">
         <v>52150</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="16"/>
@@ -2600,22 +2641,22 @@
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="C27" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="18">
         <v>52160</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="21"/>
@@ -2635,22 +2676,22 @@
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="18">
         <v>52163</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="21"/>
@@ -2672,22 +2713,22 @@
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="18">
         <v>52164</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="21"/>
@@ -2707,22 +2748,22 @@
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="18">
         <v>52165</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="21"/>
@@ -2742,22 +2783,22 @@
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="D31" s="13">
         <v>80</v>
       </c>
       <c r="E31" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="16"/>
@@ -2779,22 +2820,22 @@
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="C32" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="13">
         <v>80</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="22"/>
@@ -2816,22 +2857,22 @@
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D33" s="13">
         <v>80</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="22"/>
@@ -2853,22 +2894,22 @@
     </row>
     <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="C34" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D34" s="13">
         <v>80</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="22"/>
@@ -2890,22 +2931,22 @@
     </row>
     <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="D35" s="13">
         <v>3306</v>
       </c>
       <c r="E35" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="22"/>
@@ -2925,10 +2966,10 @@
     </row>
     <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>54</v>
@@ -2960,20 +3001,20 @@
     </row>
     <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="D37" s="13">
         <v>5432</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="22"/>
@@ -2993,25 +3034,25 @@
     </row>
     <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>153</v>
-      </c>
       <c r="C38" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" s="13">
         <v>80</v>
       </c>
       <c r="E38" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>155</v>
-      </c>
       <c r="G38" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
@@ -3030,22 +3071,22 @@
     </row>
     <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>157</v>
-      </c>
       <c r="C39" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D39" s="13">
         <v>80</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="22"/>
@@ -3065,22 +3106,22 @@
     </row>
     <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="C40" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" s="13">
         <v>80</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="22"/>
@@ -3100,22 +3141,22 @@
     </row>
     <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="C41" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D41" s="13">
         <v>80</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="22"/>
@@ -3135,22 +3176,22 @@
     </row>
     <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>166</v>
-      </c>
       <c r="C42" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D42" s="13">
         <v>80</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="22"/>
@@ -3170,22 +3211,22 @@
     </row>
     <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>169</v>
-      </c>
       <c r="C43" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D43" s="13">
         <v>80</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="22"/>
@@ -3205,22 +3246,22 @@
     </row>
     <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="C44" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D44" s="13">
         <v>80</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="22"/>
@@ -3240,22 +3281,22 @@
     </row>
     <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="C45" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D45" s="13">
         <v>80</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="22"/>
@@ -3275,22 +3316,22 @@
     </row>
     <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>178</v>
-      </c>
       <c r="C46" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D46" s="13">
         <v>80</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="22"/>
@@ -3310,22 +3351,22 @@
     </row>
     <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>181</v>
-      </c>
       <c r="C47" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="13">
         <v>80</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="22"/>
@@ -3345,20 +3386,20 @@
     </row>
     <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>184</v>
-      </c>
       <c r="C48" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="13">
         <v>80</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="22"/>
@@ -3378,23 +3419,23 @@
     </row>
     <row r="49" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="D49" s="13">
         <v>8081</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
@@ -3412,25 +3453,25 @@
       <c r="S49" s="22"/>
       <c r="T49" s="22"/>
       <c r="U49" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D50" s="13">
         <v>8081</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="22"/>
@@ -3452,20 +3493,20 @@
     </row>
     <row r="51" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D51" s="13">
         <v>8081</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="22"/>
@@ -3487,20 +3528,20 @@
     </row>
     <row r="52" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D52" s="13">
         <v>8081</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="22"/>
@@ -3522,20 +3563,20 @@
     </row>
     <row r="53" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D53" s="13">
         <v>8081</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="22"/>
@@ -3557,20 +3598,20 @@
     </row>
     <row r="54" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D54" s="13">
         <v>8081</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="22"/>
@@ -3592,22 +3633,22 @@
     </row>
     <row r="55" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D55" s="13">
         <v>8081</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="22"/>
@@ -3629,7 +3670,7 @@
     </row>
     <row r="56" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -3654,7 +3695,7 @@
     </row>
     <row r="57" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -3679,23 +3720,23 @@
     </row>
     <row r="58" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="D58" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="E58" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
@@ -3714,18 +3755,20 @@
     </row>
     <row r="59" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F59" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12" t="s">
-        <v>206</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="22"/>
@@ -3745,10 +3788,10 @@
     </row>
     <row r="60" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>54</v>
@@ -3776,13 +3819,13 @@
     </row>
     <row r="61" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>211</v>
       </c>
       <c r="D61" s="13">
         <v>443</v>
@@ -3807,13 +3850,13 @@
     </row>
     <row r="62" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="D62" s="13">
         <v>443</v>
@@ -3840,19 +3883,19 @@
     </row>
     <row r="63" spans="1:21" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="D63" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="E63" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="15"/>
@@ -3874,39 +3917,39 @@
       <c r="S63" s="16"/>
       <c r="T63" s="16"/>
       <c r="U63" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
       <c r="E64" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="15"/>
-      <c r="H64" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I64" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="J64" s="22" t="s">
+      <c r="H64" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J64" s="25" t="s">
         <v>41</v>
       </c>
       <c r="K64" s="22"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
-      <c r="N64" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="O64" s="22" t="s">
+      <c r="N64" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="O64" s="25" t="s">
         <v>41</v>
       </c>
       <c r="P64" s="22"/>
@@ -3918,7 +3961,7 @@
     </row>
     <row r="65" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3945,13 +3988,13 @@
     </row>
     <row r="66" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="D66" s="13">
         <v>80</v>
@@ -3960,10 +4003,10 @@
         <v>26</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G66" s="15"/>
-      <c r="H66" s="22" t="s">
+      <c r="H66" s="25" t="s">
         <v>41</v>
       </c>
       <c r="I66" s="22"/>
@@ -3979,12 +4022,12 @@
       <c r="S66" s="22"/>
       <c r="T66" s="22"/>
       <c r="U66" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -4009,7 +4052,7 @@
     </row>
     <row r="68" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -4034,7 +4077,7 @@
     </row>
     <row r="69" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -4059,7 +4102,7 @@
     </row>
     <row r="70" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -4084,22 +4127,22 @@
     </row>
     <row r="71" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="D71" s="13">
         <v>80</v>
       </c>
       <c r="E71" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F71" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="22"/>
@@ -4121,15 +4164,15 @@
     </row>
     <row r="72" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="15"/>
@@ -4152,18 +4195,18 @@
     </row>
     <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F73" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="22"/>
@@ -4185,15 +4228,15 @@
     </row>
     <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="15"/>
@@ -4216,18 +4259,18 @@
     </row>
     <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F75" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>249</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="22"/>
@@ -4249,7 +4292,7 @@
     </row>
     <row r="76" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -4274,7 +4317,7 @@
     </row>
     <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -4299,7 +4342,7 @@
     </row>
     <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -4324,7 +4367,7 @@
     </row>
     <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -4349,7 +4392,7 @@
     </row>
     <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -4374,18 +4417,18 @@
     </row>
     <row r="81" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F81" s="12" t="s">
         <v>257</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>258</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="22"/>
@@ -4395,7 +4438,7 @@
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
-      <c r="O81" s="22" t="s">
+      <c r="O81" s="25" t="s">
         <v>41</v>
       </c>
       <c r="P81" s="22"/>
@@ -4407,18 +4450,18 @@
     </row>
     <row r="82" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="22"/>
@@ -4438,22 +4481,22 @@
     </row>
     <row r="83" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D83" s="13">
         <v>8081</v>
       </c>
       <c r="E83" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F83" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>262</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="22"/>
@@ -4464,7 +4507,7 @@
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
-      <c r="P83" s="22" t="s">
+      <c r="P83" s="25" t="s">
         <v>41</v>
       </c>
       <c r="Q83" s="22"/>
@@ -4472,28 +4515,28 @@
       <c r="S83" s="22"/>
       <c r="T83" s="22"/>
       <c r="U83" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D84" s="13">
         <v>3306</v>
       </c>
       <c r="E84" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F84" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="G84" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
@@ -4502,7 +4545,7 @@
       <c r="L84" s="22"/>
       <c r="M84" s="22"/>
       <c r="N84" s="22"/>
-      <c r="O84" s="22" t="s">
+      <c r="O84" s="25" t="s">
         <v>41</v>
       </c>
       <c r="P84" s="22"/>
@@ -4511,28 +4554,28 @@
       <c r="S84" s="22"/>
       <c r="T84" s="22"/>
       <c r="U84" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D85" s="13">
         <v>3306</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F85" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G85" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="H85" s="22"/>
       <c r="I85" s="22"/>
@@ -4541,7 +4584,7 @@
       <c r="L85" s="22"/>
       <c r="M85" s="22"/>
       <c r="N85" s="22"/>
-      <c r="O85" s="22" t="s">
+      <c r="O85" s="25" t="s">
         <v>41</v>
       </c>
       <c r="P85" s="22"/>
@@ -4550,28 +4593,28 @@
       <c r="S85" s="22"/>
       <c r="T85" s="22"/>
       <c r="U85" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D86" s="13">
         <v>3306</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F86" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G86" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
@@ -4580,7 +4623,7 @@
       <c r="L86" s="22"/>
       <c r="M86" s="22"/>
       <c r="N86" s="22"/>
-      <c r="O86" s="22" t="s">
+      <c r="O86" s="25" t="s">
         <v>41</v>
       </c>
       <c r="P86" s="22"/>
@@ -4589,30 +4632,30 @@
       <c r="S86" s="22"/>
       <c r="T86" s="22"/>
       <c r="U86" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B87" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>273</v>
       </c>
       <c r="D87" s="13">
         <v>80</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
@@ -4621,7 +4664,7 @@
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
       <c r="N87" s="22"/>
-      <c r="O87" s="22" t="s">
+      <c r="O87" s="25" t="s">
         <v>41</v>
       </c>
       <c r="P87" s="22"/>
@@ -4630,27 +4673,27 @@
       <c r="S87" s="22"/>
       <c r="T87" s="22"/>
       <c r="U87" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B88" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>275</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>276</v>
       </c>
       <c r="D88" s="13">
         <v>80</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="22"/>
@@ -4660,7 +4703,7 @@
       <c r="L88" s="22"/>
       <c r="M88" s="22"/>
       <c r="N88" s="22"/>
-      <c r="O88" s="22" t="s">
+      <c r="O88" s="25" t="s">
         <v>41</v>
       </c>
       <c r="P88" s="22"/>
@@ -4669,30 +4712,30 @@
       <c r="S88" s="22"/>
       <c r="T88" s="22"/>
       <c r="U88" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B89" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>279</v>
       </c>
       <c r="D89" s="13">
         <v>80</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
@@ -4701,7 +4744,7 @@
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
       <c r="N89" s="22"/>
-      <c r="O89" s="22" t="s">
+      <c r="O89" s="25" t="s">
         <v>41</v>
       </c>
       <c r="P89" s="22"/>
@@ -4710,8 +4753,45 @@
       <c r="S89" s="22"/>
       <c r="T89" s="22"/>
       <c r="U89" s="15" t="s">
-        <v>263</v>
-      </c>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13">
+        <v>1521</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+      <c r="Q90" s="22"/>
+      <c r="R90" s="22"/>
+      <c r="S90" s="22"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4764,6 +4844,6 @@
     <hyperlink ref="B66" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
--- a/trunk/Documentazione Generale/Tiscali - BSS - SIT - Environments.xlsx
+++ b/trunk/Documentazione Generale/Tiscali - BSS - SIT - Environments.xlsx
@@ -1623,7 +1623,7 @@
   <dimension ref="A1:AMK90"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
